--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -40,6 +40,27 @@
     <x:t>State</x:t>
   </x:si>
   <x:si>
+    <x:t>KAKWANI SUNIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kakwanisunil@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9898882245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT POLYTECHNIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dahod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gujarat</x:t>
+  </x:si>
+  <x:si>
     <x:t>HAMIR SAPRAMER</x:t>
   </x:si>
   <x:si>
@@ -56,9 +77,6 @@
   </x:si>
   <x:si>
     <x:t>649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gujarat</x:t>
   </x:si>
   <x:si>
     <x:t>This IsTest</x:t>
@@ -517,6 +535,32 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="30">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -61,6 +61,24 @@
     <x:t>Gujarat</x:t>
   </x:si>
   <x:si>
+    <x:t>Devam Narkar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>narkar.devam.932@ldce.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8141804855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmedabad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>028</x:t>
+  </x:si>
+  <x:si>
     <x:t>HAMIR SAPRAMER</x:t>
   </x:si>
   <x:si>
@@ -86,15 +104,6 @@
   </x:si>
   <x:si>
     <x:t>9033320474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmedabad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>028</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -561,6 +570,32 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -40,43 +40,25 @@
     <x:t>State</x:t>
   </x:si>
   <x:si>
-    <x:t>HAMIR SAPRAMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>merhamir@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9426587197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIR BHAVSINHJI POLYTECHNIC INSTITUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bhavnagar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>649</x:t>
+    <x:t>Devam Narkar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>narkar.devam.932@ldce.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8141804855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmedabad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>028</x:t>
   </x:si>
   <x:si>
     <x:t>Gujarat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This IsTest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harshitrawal000@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033320474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmedabad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>028</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -491,32 +473,6 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26" count="26">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -40,25 +40,58 @@
     <x:t>State</x:t>
   </x:si>
   <x:si>
-    <x:t>Devam Narkar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>narkar.devam.932@ldce.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8141804855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmedabad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>028</x:t>
+    <x:t>SHAIKH MG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dec612owner@gtu.edu.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9173971588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DR. S. &amp; S. S. GHANDHY COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>surat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612</x:t>
   </x:si>
   <x:si>
     <x:t>Gujarat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kalpesh Shah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meet_kalpesh@yahoo.co.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9427062268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A. D. PATEL INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VAIDYA CHIRAYU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cpv.fetr@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9737914668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FACULTY OF ENGINEERING ,TECHNOLOGY AND RESEARCH. BARDOLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>084</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -473,6 +506,58 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,98 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="30">
-  <x:si>
-    <x:t>sr_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mobileno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>college_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>college_city</x:t>
-  </x:si>
-  <x:si>
-    <x:t>college_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>State</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KAKWANI SUNIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kakwanisunil@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9898882245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOVERNMENT POLYTECHNIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dahod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gujarat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Devam Narkar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>narkar.devam.932@ldce.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8141804855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmedabad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HAMIR SAPRAMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>merhamir@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9426587197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIR BHAVSINHJI POLYTECHNIC INSTITUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bhavnagar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This IsTest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harshitrawal000@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033320474</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,136 +375,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="1" spans="1:0"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/UnconfirmedFacultyList.xlsx
+++ b/public/documents/UnconfirmedFacultyList.xlsx
@@ -14,7 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="17">
+  <x:si>
+    <x:t>sr_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mobileno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>college_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>college_city</x:t>
+  </x:si>
+  <x:si>
+    <x:t>college_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updated_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pimal Gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pimalgandhi@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9428420768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARDAR VALLABHBHAI PATEL INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gujarat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Mar 25 2017 17:38:14 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +427,64 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:0"/>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
